--- a/medicine/Enfance/Yukio_Abe/Yukio_Abe.xlsx
+++ b/medicine/Enfance/Yukio_Abe/Yukio_Abe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yukio Abe (阿部 行夫), est un auteur et illustrateur japonais d'albums jeunesse illustrés. Il est depuis 2009 édité en France par les éditions nobi nobi !.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yukio Abe travaille dans l’animation où il participe à de nombreuses séries (Le tour du monde en 80 jours)  et collabore aux films de la maison Sanrio (Hello Kitty) à la fin des années 80[1].
-Il est directeur artistique pour le film Léo, roi de la jungle [2](1997)  d’après Osamu Tezuka et La Vallée d’émeraude[3] (Prix de l’académie japonaise du meilleur film d’animation) d’après un classique de la littérature jeunesse japonaise.
-Yukio Abe a conçu Shiro et les flammes d’arc-en-ciel pendant plusieurs années[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yukio Abe travaille dans l’animation où il participe à de nombreuses séries (Le tour du monde en 80 jours)  et collabore aux films de la maison Sanrio (Hello Kitty) à la fin des années 80.
+Il est directeur artistique pour le film Léo, roi de la jungle (1997)  d’après Osamu Tezuka et La Vallée d’émeraude (Prix de l’académie japonaise du meilleur film d’animation) d’après un classique de la littérature jeunesse japonaise.
+Yukio Abe a conçu Shiro et les flammes d’arc-en-ciel pendant plusieurs années.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Prix reçus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix du meilleur réalisateur au Festival international du film de Houston (en) en 1990[réf. nécessaire]</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Titres publiés en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shiro et les flammes d'arc-en-ciel, nobi nobi !
 La maison-ballon de la famille Hippo, nobi nobi !</t>
@@ -605,7 +623,9 @@
           <t>Titres publiés au Japon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait l'animation (décor)de l'anime Super Mario Bros. : Peach-Hime Kyushutsu Dai Sakusen! en 1986.
 </t>
@@ -636,7 +656,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">fiche auteur
 ↑ « Planète Jeunesse - Staff &amp; Cast - Yukio Abe », sur planete-jeunesse.com (consulté le 11 mai 2021).
